--- a/input/special_groups_species.xlsx
+++ b/input/special_groups_species.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
   <si>
     <t>ASFIS Scientific Name</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Oncorhynchus kisutch</t>
   </si>
   <si>
-    <t>Oncorhynchus mykiss</t>
-  </si>
-  <si>
     <t>Oncorhynchus nerka</t>
   </si>
   <si>
@@ -52,12 +49,15 @@
     <t>Oncorhynchus tshawytscha</t>
   </si>
   <si>
-    <t>Salvelinus alpinus</t>
+    <t>Thaleichthys pacificus</t>
   </si>
   <si>
     <t>Alopias pelagicus</t>
   </si>
   <si>
+    <t>Alopias spp</t>
+  </si>
+  <si>
     <t>Alopias superciliosus</t>
   </si>
   <si>
@@ -124,7 +124,7 @@
     <t>Thunnus thynnus</t>
   </si>
   <si>
-    <t>Area 67 - Salmon</t>
+    <t>Area 67 - Pacific Salmon</t>
   </si>
   <si>
     <t>Sharks</t>
@@ -133,16 +133,13 @@
     <t>Tuna</t>
   </si>
   <si>
-    <t>Family: Salmonidae</t>
+    <t>Pacfic Salmon</t>
   </si>
   <si>
     <t>Pelagic-oceanic</t>
   </si>
   <si>
     <t>Highly Migratory Tuna</t>
-  </si>
-  <si>
-    <t>Fishstat</t>
   </si>
   <si>
     <t>According to Dulvy et al. 2008</t>
@@ -503,556 +500,436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>4</v>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2">
+      <c r="E3">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3">
+      <c r="E4">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4">
+      <c r="E5">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5">
+      <c r="E6">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6">
+      <c r="E7">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7">
+      <c r="E8">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>4</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>5</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>6</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>13</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>14</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>8</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>7</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>9</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>10</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>11</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>12</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>3</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>1</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>15</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>2</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>0</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>0</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="D31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
       <c r="C32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" t="s">
         <v>41</v>
       </c>
     </row>
